--- a/biology/Médecine/Artères_ciliaires_postérieures_longues/Artères_ciliaires_postérieures_longues.xlsx
+++ b/biology/Médecine/Artères_ciliaires_postérieures_longues/Artères_ciliaires_postérieures_longues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8res_ciliaires_post%C3%A9rieures_longues</t>
+          <t>Artères_ciliaires_postérieures_longues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères ciliaires postérieures longues (ou artères iriennes de Chaussier) sont des artères de du globe oculaire et sont au nombre de deux par œil, une médiale et une latérale..
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8res_ciliaires_post%C3%A9rieures_longues</t>
+          <t>Artères_ciliaires_postérieures_longues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères ciliaires postérieures longues naissent de l'artère ophtalmique et accompagnent le nerf optique.
 Elles percent la partie postérieure de la sclère à peu de distance du nerf optique, et courent en avant, de part et d'autre du globe oculaire, entre la sclère et la choroïde, jusqu'au muscle ciliaire, où elles se divisent en deux branches, une ascendante et une descendante.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8res_ciliaires_post%C3%A9rieures_longues</t>
+          <t>Artères_ciliaires_postérieures_longues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Cible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères ciliaires postérieures longues irriguent l'iris, le corps ciliaire et la choroïde.
 </t>
